--- a/components.xlsx
+++ b/components.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Component List</t>
   </si>
@@ -65,9 +65,6 @@
     <t>triangleMesh</t>
   </si>
   <si>
-    <t>visibility overrides</t>
-  </si>
-  <si>
     <t>Pose State</t>
   </si>
   <si>
@@ -180,6 +177,36 @@
   </si>
   <si>
     <t>NodeHandle</t>
+  </si>
+  <si>
+    <t>StringID</t>
+  </si>
+  <si>
+    <t>ID : char[64]</t>
+  </si>
+  <si>
+    <t>entity : GameObject</t>
+  </si>
+  <si>
+    <t>scene : sceneHandle</t>
+  </si>
+  <si>
+    <t>node : nodeHandle</t>
+  </si>
+  <si>
+    <t>visable</t>
+  </si>
+  <si>
+    <t>rayVisable</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>boundingSphere</t>
+  </si>
+  <si>
+    <t>Visability</t>
   </si>
 </sst>
 </file>
@@ -385,7 +412,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
@@ -396,18 +423,12 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
@@ -420,6 +441,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="8" builtinId="30"/>
@@ -708,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,19 +746,22 @@
     <col min="4" max="4" width="15.08984375" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
     <col min="11" max="11" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -750,208 +777,265 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="K8" s="8" t="s">
-        <v>39</v>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>26</v>
+      <c r="A9" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>30</v>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>31</v>
+      <c r="A12" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="B19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
